--- a/misoka/UCI/問題_misoka.xlsx
+++ b/misoka/UCI/問題_misoka.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="140">
   <si>
     <t>url</t>
   </si>
@@ -801,6 +801,17 @@
     <rPh sb="8" eb="9">
       <t>チガ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これを予想する</t>
+    <rPh sb="3" eb="5">
+      <t>ヨソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MSE</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -893,12 +904,38 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -911,7 +948,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -933,6 +970,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
@@ -1198,6 +1237,70 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 処理 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8448675" y="952500"/>
+          <a:ext cx="371475" cy="2762250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2474,12 +2577,12 @@
     <col min="1" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>89</v>
       </c>
@@ -2496,10 +2599,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2507,24 +2610,35 @@
     <col min="2" max="2" width="62.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="D1" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="12">
+        <v>8503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.15">
@@ -2710,6 +2824,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>